--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H2">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I2">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J2">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N2">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q2">
-        <v>640.5966932149595</v>
+        <v>799.5007912005909</v>
       </c>
       <c r="R2">
-        <v>5765.370238934636</v>
+        <v>7195.507120805318</v>
       </c>
       <c r="S2">
-        <v>0.01960551813163351</v>
+        <v>0.01662019521803169</v>
       </c>
       <c r="T2">
-        <v>0.01960551813163352</v>
+        <v>0.01662019521803169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H3">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I3">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J3">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>141.74704</v>
       </c>
       <c r="O3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q3">
-        <v>7333.700149941351</v>
+        <v>10620.78935930606</v>
       </c>
       <c r="R3">
-        <v>66003.30134947215</v>
+        <v>95587.10423375457</v>
       </c>
       <c r="S3">
-        <v>0.2244485380341968</v>
+        <v>0.2207872643330162</v>
       </c>
       <c r="T3">
-        <v>0.2244485380341968</v>
+        <v>0.2207872643330162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H4">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I4">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J4">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N4">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q4">
-        <v>2161.55405097619</v>
+        <v>5514.323488445943</v>
       </c>
       <c r="R4">
-        <v>19453.98645878571</v>
+        <v>49628.91139601349</v>
       </c>
       <c r="S4">
-        <v>0.0661545518229814</v>
+        <v>0.114632948312311</v>
       </c>
       <c r="T4">
-        <v>0.06615455182298141</v>
+        <v>0.114632948312311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H5">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I5">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J5">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N5">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O5">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P5">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q5">
-        <v>1275.678846132064</v>
+        <v>1741.251350948925</v>
       </c>
       <c r="R5">
-        <v>11481.10961518857</v>
+        <v>15671.26215854032</v>
       </c>
       <c r="S5">
-        <v>0.03904226327248772</v>
+        <v>0.03619750936453001</v>
       </c>
       <c r="T5">
-        <v>0.03904226327248772</v>
+        <v>0.03619750936453001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>738.543487</v>
       </c>
       <c r="I6">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J6">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N6">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O6">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P6">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q6">
-        <v>1016.036021068573</v>
+        <v>875.6078853634187</v>
       </c>
       <c r="R6">
-        <v>9144.324189617157</v>
+        <v>7880.470968270769</v>
       </c>
       <c r="S6">
-        <v>0.03109587177773383</v>
+        <v>0.01820232593808242</v>
       </c>
       <c r="T6">
-        <v>0.03109587177773384</v>
+        <v>0.01820232593808242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>738.543487</v>
       </c>
       <c r="I7">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J7">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>141.74704</v>
       </c>
       <c r="O7">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P7">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q7">
         <v>11631.81702150316</v>
@@ -883,10 +883,10 @@
         <v>104686.3531935285</v>
       </c>
       <c r="S7">
-        <v>0.3559927828762606</v>
+        <v>0.2418047258558655</v>
       </c>
       <c r="T7">
-        <v>0.3559927828762606</v>
+        <v>0.2418047258558655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>738.543487</v>
       </c>
       <c r="I8">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J8">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N8">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O8">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P8">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q8">
-        <v>3428.392310700763</v>
+        <v>6039.249969568277</v>
       </c>
       <c r="R8">
-        <v>30855.53079630687</v>
+        <v>54353.2497261145</v>
       </c>
       <c r="S8">
-        <v>0.104926248171003</v>
+        <v>0.1255452334374657</v>
       </c>
       <c r="T8">
-        <v>0.104926248171003</v>
+        <v>0.1255452334374657</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>738.543487</v>
       </c>
       <c r="I9">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J9">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N9">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O9">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P9">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q9">
-        <v>2023.325553680992</v>
+        <v>1907.006759807016</v>
       </c>
       <c r="R9">
-        <v>18209.92998312892</v>
+        <v>17163.06083826314</v>
       </c>
       <c r="S9">
-        <v>0.06192405650707744</v>
+        <v>0.03964326862329094</v>
       </c>
       <c r="T9">
-        <v>0.06192405650707744</v>
+        <v>0.03964326862329094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H10">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I10">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J10">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N10">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O10">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P10">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q10">
-        <v>176.5780961528033</v>
+        <v>383.046006764773</v>
       </c>
       <c r="R10">
-        <v>1589.20286537523</v>
+        <v>3447.414060882957</v>
       </c>
       <c r="S10">
-        <v>0.005404188161507462</v>
+        <v>0.007962843164117319</v>
       </c>
       <c r="T10">
-        <v>0.005404188161507464</v>
+        <v>0.007962843164117321</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H11">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I11">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J11">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>141.74704</v>
       </c>
       <c r="O11">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P11">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q11">
-        <v>2021.507172840853</v>
+        <v>5088.48896404816</v>
       </c>
       <c r="R11">
-        <v>18193.56455556768</v>
+        <v>45796.40067643344</v>
       </c>
       <c r="S11">
-        <v>0.0618684048015517</v>
+        <v>0.1057806081971239</v>
       </c>
       <c r="T11">
-        <v>0.06186840480155172</v>
+        <v>0.1057806081971239</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H12">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I12">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J12">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N12">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O12">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P12">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q12">
-        <v>595.8243354913434</v>
+        <v>2641.948094993768</v>
       </c>
       <c r="R12">
-        <v>5362.41901942209</v>
+        <v>23777.53285494391</v>
       </c>
       <c r="S12">
-        <v>0.01823525618610113</v>
+        <v>0.05492138791853505</v>
       </c>
       <c r="T12">
-        <v>0.01823525618610114</v>
+        <v>0.05492138791853506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H13">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I13">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J13">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N13">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O13">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P13">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q13">
-        <v>351.6361297806719</v>
+        <v>834.244798874014</v>
       </c>
       <c r="R13">
-        <v>3164.725168026047</v>
+        <v>7508.203189866127</v>
       </c>
       <c r="S13">
-        <v>0.01076185467576092</v>
+        <v>0.01734246115765876</v>
       </c>
       <c r="T13">
-        <v>0.01076185467576093</v>
+        <v>0.01734246115765876</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H14">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I14">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J14">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N14">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O14">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P14">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q14">
-        <v>0.9913231230777779</v>
+        <v>1.151622735336</v>
       </c>
       <c r="R14">
-        <v>8.921908107700002</v>
+        <v>10.364604618024</v>
       </c>
       <c r="S14">
-        <v>3.033953136140708E-05</v>
+        <v>2.394018228558047E-05</v>
       </c>
       <c r="T14">
-        <v>3.033953136140709E-05</v>
+        <v>2.394018228558047E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H15">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I15">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J15">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>141.74704</v>
       </c>
       <c r="O15">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P15">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q15">
-        <v>11.34889800924444</v>
+        <v>15.29847453312</v>
       </c>
       <c r="R15">
-        <v>102.1400820832</v>
+        <v>137.68627079808</v>
       </c>
       <c r="S15">
-        <v>0.0003473340216254265</v>
+        <v>0.0003180279945648572</v>
       </c>
       <c r="T15">
-        <v>0.0003473340216254265</v>
+        <v>0.0003180279945648572</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H16">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I16">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J16">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N16">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O16">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P16">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q16">
-        <v>3.345004017677778</v>
+        <v>7.942981882175999</v>
       </c>
       <c r="R16">
-        <v>30.1050361591</v>
+        <v>71.48683693958399</v>
       </c>
       <c r="S16">
-        <v>0.0001023741421296446</v>
+        <v>0.0001651204238294897</v>
       </c>
       <c r="T16">
-        <v>0.0001023741421296446</v>
+        <v>0.0001651204238294897</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H17">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I17">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J17">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N17">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O17">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P17">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q17">
-        <v>1.97411249728</v>
+        <v>2.508145915248</v>
       </c>
       <c r="R17">
-        <v>17.76701247552</v>
+        <v>22.573313237232</v>
       </c>
       <c r="S17">
-        <v>6.041788658799704E-05</v>
+        <v>5.213987929159126E-05</v>
       </c>
       <c r="T17">
-        <v>6.041788658799704E-05</v>
+        <v>5.213987929159127E-05</v>
       </c>
     </row>
   </sheetData>
